--- a/src/data/Public-Dataset-Daily-Case-Info.XLSX
+++ b/src/data/Public-Dataset-Daily-Case-Info.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$S$134</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$S$135</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S134"/>
+  <dimension ref="A1:S135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -6799,6 +6799,65 @@
         <v>3434</v>
       </c>
     </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B135" s="0">
+        <v>71540</v>
+      </c>
+      <c r="C135" s="0">
+        <v>2479</v>
+      </c>
+      <c r="D135" s="0">
+        <v>70881</v>
+      </c>
+      <c r="E135" s="0">
+        <v>2440</v>
+      </c>
+      <c r="F135" s="0">
+        <v>659</v>
+      </c>
+      <c r="G135" s="0">
+        <v>39</v>
+      </c>
+      <c r="H135" s="0">
+        <v>83227</v>
+      </c>
+      <c r="I135" s="0">
+        <v>1039811</v>
+      </c>
+      <c r="J135" s="0">
+        <v>1123038</v>
+      </c>
+      <c r="K135" s="0">
+        <v>25985</v>
+      </c>
+      <c r="L135" s="0">
+        <v>13</v>
+      </c>
+      <c r="M135" s="0">
+        <v>796</v>
+      </c>
+      <c r="N135" s="0">
+        <v>1393</v>
+      </c>
+      <c r="O135" s="0">
+        <v>41250</v>
+      </c>
+      <c r="P135" s="0">
+        <v>1073</v>
+      </c>
+      <c r="Q135" s="0">
+        <v>29494</v>
+      </c>
+      <c r="R135" s="0">
+        <v>63</v>
+      </c>
+      <c r="S135" s="0">
+        <v>3497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
